--- a/Daisy-xls/ResearchPages/English/research-diagnosis-and-staging.xlsx
+++ b/Daisy-xls/ResearchPages/English/research-diagnosis-and-staging.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -126,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,12 +149,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -203,6 +218,9 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -510,7 +528,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -549,7 +567,9 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="17">
+        <v>899255</v>
+      </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
@@ -565,7 +585,9 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="17">
+        <v>862420</v>
+      </c>
       <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
@@ -581,7 +603,9 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="17">
+        <v>641736</v>
+      </c>
       <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
@@ -597,7 +621,9 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="17">
+        <v>819939</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
